--- a/conf/rush.xlsx
+++ b/conf/rush.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="rush" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,2565 +20,2571 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="853">
-  <si>
-    <t xml:space="preserve">#/*******************************************************************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * Copyright  2016  Department of Biomedical Informatics, University of Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * &lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * Licensed under the Apache License, Version 2.0 (the "License");</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * you may not use this file except in compliance with the License.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * You may obtain a copy of the License at</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * http://www.apache.org/licenses/LICENSE-2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * Unless required by applicable law or agreed to in writing, software</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * distributed under the License is distributed on an "AS IS" BASIS,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * See the License for the specific language governing permissions and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># * limitations under the License.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># *******************************************************************************/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@maxRepeatLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#stbegin is the marker for sentence begin, the span of sentence will start at the begin of the captured group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#stbegin has two scores 0, 1: 0 for true sentence begin, 1 for false sentence begin which will overwrite 0 when they are overlapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#stend is the marker for sentence begin, the span of sentence will end at the end of the captured group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#stend has two scores 2, 3: 2 for true sentence end, 3 for false sentence end which will overwrite 2 when they are overlapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \d   A digit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \C   A capital letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \c   A lowercase letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \s   A whitespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \a   A Non-whitespace character</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \u   A unusual character: not a letter, not a number, not a punctuation, not a whitespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \n   A return</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># (   Beginning of capturing a group</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># )   End of capturing a group</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \p   A punctuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># &lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \+   An addition symbol (to distinguish the "+" after a wildcard)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \(   A left parentheses symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># \)   A right parentheses symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># The wildcard plus "+": 1 or more wildcard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\b(\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stbegin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\b(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\b\w+(\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL.\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\).\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\).\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C\C.\s+(\C)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d.\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Med\n\n\n+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Med\s+\n\n\n+\s+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Med\s+\n+\s+\n+\s+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Normal\s+\n+\s+\n+\s+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\n+(\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\n+(\d+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d%.\n+(\d+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\n\n\w+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\s+\n\n\w+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\n\w+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c.\w+(\c+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d+)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d+)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+\s+(\d+)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d).\s+\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(\d+)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d+).\d+x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d+).\d+x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+\s+(\d+).\d+x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(\d+).\d+x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d+).\d+*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d+).\d+*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+\s+(\d+).\d+*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(\d+).\d+*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d+)x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d+)x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+\s+(\d+)x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(\d+)x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d+)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d+)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+\s+(\d+)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(\d+)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d+)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d+)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+\s+(\d+)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(\d+)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s\w+\d+.(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s\w+\d+.\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s\w+(\d)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s\w+(\d+)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s\w+(")\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\d+.(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d/\s+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d+.\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d+)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(")\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(")\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(")\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\s+\n(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\n(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(-\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(-\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(-\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(-\s+\c)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+-\s+(\c)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n(-\c)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\n(-\c)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n(-\c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\s+\n(-\c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(-\c)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n (ΓÇó  \c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(-\d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(-\d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+\s+(-\d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n*(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(*)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(*)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(*)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(')\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(')\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(')\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(')\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(%)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(%)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(%)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(%)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\b*\p+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\b\n*\p+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n*\p+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n*\p+\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n**\p+\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n**\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n**\p+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n**(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n**(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+*\p+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+*\p+\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+**\p+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\u)\s+\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\u)\s+\d+\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\u)\s+\d+/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\u)\s+\d/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\u)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\s+(\u)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\u)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?\s+(\C)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?\s+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!\s+(\C)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!\s+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#start with time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d):\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d):\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d:\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d:\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d):\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d):\d\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d:\d\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d:\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d):\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d):\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d)\d:\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d)\d:\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d):\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d):\d\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d)\d:\d\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n\w+(\d)\d:\d-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#start with dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d+)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d/\d/\d\d\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)/\d/\d\d\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d/\d\d/\d\d\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)/\d\d/\d\d\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d/\d/\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)/\d/\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d/\d\d/\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)/\d\d/\d\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d/\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)/\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)\d/\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\d)/\d\d/\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+\s\s\s\s(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+\s\s\s(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+\s\s(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+(\C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+(N)ow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+(D)ischarge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\(-\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\(+\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n┬á┬á┬á┬á┬á┬á  (\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C:\n+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d.\s+)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d.\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\s+(\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\s+(\d\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d.)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d\d.)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\n+(\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s+\s+(\d\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s+\s+(\d\d\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n)                                    \d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\n+(\d. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d:\n+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C:\s+\n+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C:\s+\n+(1.┬á</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\s+\n+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d:\s+\n+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\).\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(- \c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(- \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(# \c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(# \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(#\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(#\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(* \c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(* \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(? \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(? \c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(. \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(+ \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(/ \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+\d\d-\d\d\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+\d+-\d\d-\d\d\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+\d+-\d\d-\d\d\s+:\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n(\d.\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d\d\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d\)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d\)\s+?\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d\d\)\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d\)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s(\d\)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s(\d\)?\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+\d\)\s+\d+\s+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\w+(\d\)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\)\C+\w+(\d\)\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+\d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\(\a+\w+\a+\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c)\w+\d\d\),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c)\w+\d\),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c)\w+\d\).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c)\w+\d\d\).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from \d+ to \d+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C)\w+\d\d\),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C)\w+\d\),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C)\w+\d\).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C)\w+\d\d\).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(\C)\w+\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(\C)\w+\d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\(\C+\s+\d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\(\c+\s+\d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(%)\w+\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(%)\w+\d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+\d\d\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\d-\d\d\s+(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\d-\d\d\s+.\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\d\d(\d)\s+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\d\d\d\s+.\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d.\)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\d.\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\s+(\d.\\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\s+(\d.\)\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\s+(\d.\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d.\s+(\d)\d-\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d.\s+(\d)\d-\d\d\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d.\s+(\d)\d-\d\d-\d\d\d\d\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(a\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(b\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(c\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(d\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(e\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(f\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\(g\)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\(\d\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n("\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(\a)\s+\n+-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(\c)\n+ \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+This </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+That </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+The </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+She </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+He </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+Her </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+His </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+They </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+Their </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+But </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(.)\s+Now </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(.)\s+Discharge </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL(.)\s+The </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(.)\s\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p\p\p\s+\n\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)(.)\s+\n\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(\c)\n+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(\c)\s+\n+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)********</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)**\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)**\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)**\p+\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)**\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s+**\p+\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+**\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n\w+**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n\w+**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(.)\s+\n\w+**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(\d)**\p+\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d**\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+**\p+\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+**\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.**\p+\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.**\s+\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.**\p+\s+\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.**\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.**\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.**\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+**\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+**\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:**\p+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:**\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:**\s+\n\w+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:**\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:\s+**\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:\s+**\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:)\n\u\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d**\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d**\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n\w+**\p+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.\s+**\p+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\s+\n+\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\s+\n+\d\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s+\n+\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s+\n+\d\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\s+\n+\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\s+\n+\d\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\s+\n+\d.\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s+\n+\d.\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s+\n+\d\d.\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\s+\n+\d.\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\s+\n+\d\d.\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(\))\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(\c)\s+\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(.)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(:)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(:)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(:)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(:)\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(:)\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(:)\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C\C(.)\s+\C\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(.)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)(.)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">](.)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\s+\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p\s+\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\s+\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\b\d(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d+(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+.\C+(:)\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrs(.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss(.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr(.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms(.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,\n\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,\w+\d+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,\n\w+\d+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">;\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)\n\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)\w+\d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)\n\w+\d+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s+\d+\)\s+\d+\s+.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+\s+.\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s+\C(\C)\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s+\C\C(\C)\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s+\C\C\C(\C)\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A\n\w+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A\w+\d+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A\n\w+\d+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+\day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+cm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+mg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+g </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+kg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+lb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+feet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+inch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+ml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+ou </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+ounce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+total dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+)\w+tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#start with number + units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\d+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\s+\d+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n+\d+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n+\d+\s+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#start with float + units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\d+.\d+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\s+\d+.\d+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n+\d+.\d+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+\n+\d+.\d+\s+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are:\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sis:\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was:\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were:\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are:\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sis:\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was:\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were:\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are:\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sis:\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was:\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were:\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are:\s+\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sis:\s+\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was:\s+\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were:\s+\n+\s+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:\n+\c)+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:\s+\n+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:\n+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:\s+\n+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spulm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL\n+\c)+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL\s+\n+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL\n+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mL\s+\n+\s+\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \n\n\n+ ΓÇó  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s+\n\n+\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+.\s+\C+(:\s+\n\n+\s+\C\c+\s+\d+.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+.\s+\C\c+(:\s+\n\n+\s+\C\c+\s+\d+.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\w+_______________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a(\p)\w+_______________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(\c)\n- \c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(\c)\n- \C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.(")\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c."\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart\nFailure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> for\s+\n+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> had\s+\n+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> have\s+\n+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> has\s+\n+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\(\C+\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\(\c+\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(rhabdomyolysis:\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+\n+(\c+\s+\c+\s+\c+\s+\c+:\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+\n+(\c+\s+\c+\s+\c+:\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#\w+(H)istory of Present Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+History of Present Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+History of Present Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+History of Present Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+History of present illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+History of present illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+History of present illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+HISTORY OF PRESENT ILLNESS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+HISTORY OF PRESENT ILLNESS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+HISTORY OF PRESENT ILLNESS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Past Medical History:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Past Medical History:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Past Medical History:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+History of Past Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+History of Past Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+History of Past Illness:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Chief Complaint:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Chief Complaint:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Chief Complaint:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\s+The</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+(The</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+(\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+(\d.\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.\s+\d.\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+\w+REASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+\w+Reason For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R)EASON FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON FOR THIS EXAMINATION(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON FOR\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON FOR\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON FOR\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON FOR\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason For This Examination(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason For\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason For\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason For\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason For\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+INDICATION:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+INDICATION:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+INDICATION:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+INDICATION:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Indication:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Indication:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+Indication:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Indication:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#INDICATION(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#INDICATION:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#INDICATION:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#INDICATION:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#INDICATION:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Indication(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Indication:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Indication:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Indication:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Indication:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+REASON:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+REASON:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+REASON:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+REASON:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Reason:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Reason:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+Reason:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Reason:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#REASON:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Reason:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\w+Admitting Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\w+ADMITTING DIAGNOSIS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\w+(A)dmitting Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\w+(A)DMITTING DIAGNOSIS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Admitting Diagnosis(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Admitting Diagnosis:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Admitting Diagnosis:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Admitting Diagnosis:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Admitting Diagnosis:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ADMITTING DIAGNOSIS(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ADMITTING DIAGNOSIS:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ADMITTING DIAGNOSIS:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ADMITTING DIAGNOSIS:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ADMITTING DIAGNOSIS:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Discharge Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+Discharge Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Discharge Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Discharge Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+DISCHARGE DIAGNOSIS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+DISCHARGE DIAGNOSIS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+DISCHARGE DIAGNOSIS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+DISCHARGE DIAGNOSIS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Discharge Diagnosis(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Discharge Diagnosis:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Discharge Diagnosis:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Discharge Diagnosis:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Discharge Diagnosis:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DISCHARGE DIAGNOSIS(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DISCHARGE DIAGNOSIS:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DISCHARGE DIAGNOSIS:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DISCHARGE DIAGNOSIS:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DISCHARGE DIAGNOSIS:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+FINDINGS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+FINDINGS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+FINDINGS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+FINDINGS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F)INDINGS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FINDINGS(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FINDINGS:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FINDINGS:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FINDINGS:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FINDINGS:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\w+Findings:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\w+Findings:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\w+Findings:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\w+Findings:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Findings(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Findings:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Findings:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Findings:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Findings:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Brief Hospital Course(:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Brief Hospital Course:\w+(\d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Brief Hospital Course:\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Brief Hospital Course:\w+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Brief Hospital Course:\w+(\p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(?)\w+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C(?)\w+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d(?)\w+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:\w+(?\w+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D(.)\s+\n+\d+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N(.)\s+\n+\d+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPO(.)\s+\n+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)(.)\w+\d+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c+\s+(.)\s+\C\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c+\s+.\s+(\C\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P(M\n\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s\s+Reason:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s\s+(Reason:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s\s+Admitting Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s\s+(Admitting Diagnosis:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s\s+Sex:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s\s+(Sex:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s\s+Discharge Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s\s+(Discharge Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dail(y\n-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qh(s\n-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sq(d\n-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QH(S\n-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+Refills:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)*\s+Refills:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+(Refills:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n\C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\n\C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(\C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(JOB#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\nJOB#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\nJOB#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n(Signed\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s\w+Signed\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\n+Signed\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\n+Signed\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\n+Signed\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\(End of Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\w+\(End of Report\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructions(:\n+\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructions:\n+(\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+(Follow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\w+\n+Follow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d+\s+\n+total dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+\C\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(\C\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+\C\C+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(\C\C+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\n+\C\C+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+(\C\C+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\n+\C\C+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+(\C\C+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\n+\C\C+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\n+(\C\C+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+T\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(T)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+P\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(P)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+R\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(R)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\n+R\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+(R)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+BP\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(BP)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+O2\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(O2)\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\w+Sig:\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\w+(Sig:\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)(.)\s+\n+\d.\s+\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\).\s+\n+(\d.\s+\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\))\s+\n+\d.\s+\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)\s+\n+(\d.\s+\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\))\n+\d.\s+\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\)\n+(\d.\s+\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)*\n+\d.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)*+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(\d)\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+(\d)\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C+\n+(\d+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C)\n+\d+.\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\n+\C\C+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\n+\C\c+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+(\C\c+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d)\n+\C\c+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\d\n+(\C\c+\s\(\a\a+\):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+(-)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(.)\s+-\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+(-)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\s+-\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+\s+-\s+\C\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+(:)\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+:\s+\n+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+:\n+\s+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+(:)\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+:\n+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C\C:\n+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C\C\):\n+(\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sand)\s+\n+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sand)\s+\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sand)\n+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sand)\n+\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c(:)\s+\p+\s+\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s+(Γõ¼ΓòÚ)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c)\s\s\s+Γõ¼ΓòÚ\s\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\p)\s\s\s+Γõ¼ΓòÚ\s\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+\s+(-)\s+\C\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s+(P)atient Name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s+(P)rocedure Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s+(D)ate of Birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s+(A)ge:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s+(G)ender:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\s\s\s+(N)ote Status:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s+Patient Name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s+Procedure Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s+Date of Birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s+Age:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s+Gender:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s\s\s+Note Status:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\n(\(\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\(\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n+(\c)\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a+\)\n\s+\c\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a+\)\s+\n+\c\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a+\)\n+\c\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a+\)\s+\n+\s+\c\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\n+\c\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+**+\s+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+**+\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a(\a)\n+\d\).\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+\d\)(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C\n+(\d\).\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\n+(\d\).\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\C.\n+(\d\).\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\s+\n+(\d)\).\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\s+\n+\d\)(.)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n+(\d)\d-\d\d\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+(\d)\d-\d\d\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a.\s+\n+(\d)\d-\d\d\s+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\w+(\d)\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c\c+.\w+(\d)\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c+\c(.)\w+\d\)\s+\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\n+\C\c+\s+\C\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+(\C)\c+\s+\C\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\s+\n+\C\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n+(\C)\c+:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)\w+Date of Birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\w+(D)ate of Birth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c:\s+\n(\a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sDr(.)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sMr(.)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sMrs(.)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sMs(.)\s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sth(e)\n\C\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sTh(e)\n\C\c+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\si(n)\n\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sI(n)\n\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sfo(r)\n\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sb(y)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\shi(s)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\she(r)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\swit(h)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\so(n)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sO(n)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sunti(l)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sUnti(l)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\so(f)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sthroug(h)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\san(d)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\so(r)\n\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sa(s)\n\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\sincludin(g)\a+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac\w+Surgery\w+Intensive\w+Care\w+Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+\w+Cardiac\w+Surgery\w+Intensive\w+Care\w+Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intensive\w+Care\w+Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+\w+Intensive\w+Care\w+Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency\w+Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coronary\w+Care\w+Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)*\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)*\n\d\d+.\s\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a)*\n\d.\s\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTER\w+(.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paterna(l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSPITAL\w+(.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTER\w+.\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSPITAL\w+.\w+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\C\c+\w+Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\c.\c(.)\w+\C\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\wTR(.\w+\C\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\wTR.\w+(\C)\c\c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+He </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+His </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+Her </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+She </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+We </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+Our </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+The </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+They </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+Their </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.)\w+My </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(He </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(His </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(Her </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(She </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(We </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(Our </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(The </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(They </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(Their </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\w+(My </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="855">
+  <si>
+    <t>#/*******************************************************************************</t>
+  </si>
+  <si>
+    <t># * Copyright  2016  Department of Biomedical Informatics, University of Utah</t>
+  </si>
+  <si>
+    <t># * &lt;p&gt;</t>
+  </si>
+  <si>
+    <t># * Licensed under the Apache License, Version 2.0 (the "License");</t>
+  </si>
+  <si>
+    <t># * you may not use this file except in compliance with the License.</t>
+  </si>
+  <si>
+    <t># * You may obtain a copy of the License at</t>
+  </si>
+  <si>
+    <t># * http://www.apache.org/licenses/LICENSE-2.0</t>
+  </si>
+  <si>
+    <t># * Unless required by applicable law or agreed to in writing, software</t>
+  </si>
+  <si>
+    <t># * distributed under the License is distributed on an "AS IS" BASIS,</t>
+  </si>
+  <si>
+    <t># * WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
+  </si>
+  <si>
+    <t># * See the License for the specific language governing permissions and</t>
+  </si>
+  <si>
+    <t># * limitations under the License.</t>
+  </si>
+  <si>
+    <t># *******************************************************************************/</t>
+  </si>
+  <si>
+    <t>@maxRepeatLength</t>
+  </si>
+  <si>
+    <t>#stbegin is the marker for sentence begin, the span of sentence will start at the begin of the captured group</t>
+  </si>
+  <si>
+    <t>#stbegin has two scores 0, 1: 0 for true sentence begin, 1 for false sentence begin which will overwrite 0 when they are overlapping</t>
+  </si>
+  <si>
+    <t>#stend is the marker for sentence begin, the span of sentence will end at the end of the captured group</t>
+  </si>
+  <si>
+    <t>#stend has two scores 2, 3: 2 for true sentence end, 3 for false sentence end which will overwrite 2 when they are overlapping</t>
+  </si>
+  <si>
+    <t># \d   A digit</t>
+  </si>
+  <si>
+    <t># \C   A capital letter</t>
+  </si>
+  <si>
+    <t># \c   A lowercase letter</t>
+  </si>
+  <si>
+    <t># \s   A whitespace</t>
+  </si>
+  <si>
+    <t># \a   A Non-whitespace character</t>
+  </si>
+  <si>
+    <t># \u   A unusual character: not a letter, not a number, not a punctuation, not a whitespace</t>
+  </si>
+  <si>
+    <t># \n   A return</t>
+  </si>
+  <si>
+    <t># (   Beginning of capturing a group</t>
+  </si>
+  <si>
+    <t># )   End of capturing a group</t>
+  </si>
+  <si>
+    <t># \p   A punctuation</t>
+  </si>
+  <si>
+    <t># &lt;p&gt;</t>
+  </si>
+  <si>
+    <t># \+   An addition symbol (to distinguish the "+" after a wildcard)</t>
+  </si>
+  <si>
+    <t># \(   A left parentheses symbol</t>
+  </si>
+  <si>
+    <t># \)   A right parentheses symbol</t>
+  </si>
+  <si>
+    <t># The wildcard plus "+": 1 or more wildcard</t>
+  </si>
+  <si>
+    <t>\b(\a</t>
+  </si>
+  <si>
+    <t>stbegin</t>
+  </si>
+  <si>
+    <t>\b(\d</t>
+  </si>
+  <si>
+    <t>\b\w+(\a</t>
+  </si>
+  <si>
+    <t>\c.\s+(\C)</t>
+  </si>
+  <si>
+    <t> mL.\s+(\C)</t>
+  </si>
+  <si>
+    <t>\c\c.\s+(\C)</t>
+  </si>
+  <si>
+    <t>\c\).\s+(\C)</t>
+  </si>
+  <si>
+    <t>\d\).\s+(\C)</t>
+  </si>
+  <si>
+    <t>\C\C\C.\s+(\C)\c</t>
+  </si>
+  <si>
+    <t>\d.\s+(\C)</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\C)</t>
+  </si>
+  <si>
+    <t> Med\n\n\n+(\c+)</t>
+  </si>
+  <si>
+    <t> Med\s+\n\n\n+\s+(\c+)</t>
+  </si>
+  <si>
+    <t> Med\s+\n+\s+\n+\s+(\c+)</t>
+  </si>
+  <si>
+    <t> Normal\s+\n+\s+\n+\s+(\c+)</t>
+  </si>
+  <si>
+    <t>\c\c.\n+(\c\c</t>
+  </si>
+  <si>
+    <t>\c\c.\n+(\d+</t>
+  </si>
+  <si>
+    <t>\d%.\n+(\d+</t>
+  </si>
+  <si>
+    <t>\c\c.\n\n\w+(\c+)</t>
+  </si>
+  <si>
+    <t>\c\c.\s+\n\n\w+(\c+)</t>
+  </si>
+  <si>
+    <t>\c\c.\n\w+(\c+)</t>
+  </si>
+  <si>
+    <t>\c\c.\w+(\c+)</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d+)\s</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d+)\s</t>
+  </si>
+  <si>
+    <t>\c.\n+\s+(\d+)\s</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d).\s+\d</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(\d+)\s+</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d+).\d+x</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d+).\d+x</t>
+  </si>
+  <si>
+    <t>\c.\n+\s+(\d+).\d+x</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(\d+).\d+x</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d+).\d+*</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d+).\d+*</t>
+  </si>
+  <si>
+    <t>\c.\n+\s+(\d+).\d+*</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(\d+).\d+*</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d+)x</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d+)x</t>
+  </si>
+  <si>
+    <t>\c.\n+\s+(\d+)x</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(\d+)x</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d+)\s+\c</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d+)\s+\c</t>
+  </si>
+  <si>
+    <t>\c.\n+\s+(\d+)\s+\c</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(\d+)\s+\c</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d+)\c</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d+)\c</t>
+  </si>
+  <si>
+    <t>\c.\n+\s+(\d+)\c</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(\d+)\c</t>
+  </si>
+  <si>
+    <t>\n\n\s\w+\d+.(\C)</t>
+  </si>
+  <si>
+    <t>\n\n\s\w+\d+.\s+(\C)</t>
+  </si>
+  <si>
+    <t>\n\n\s\w+(\d)\s</t>
+  </si>
+  <si>
+    <t>\n\n\s\w+(\d+)\s</t>
+  </si>
+  <si>
+    <t>\n\n\s\w+(")\C</t>
+  </si>
+  <si>
+    <t>\n\n\d+.(\C)</t>
+  </si>
+  <si>
+    <t>\n\d/\s+(\C)</t>
+  </si>
+  <si>
+    <t>\n\n(\d+.\s+\C</t>
+  </si>
+  <si>
+    <t>\n(\d+.\s+\c</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d+)\s</t>
+  </si>
+  <si>
+    <t>\n\n(")\C</t>
+  </si>
+  <si>
+    <t>\n\n(")\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(")\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n(-\C</t>
+  </si>
+  <si>
+    <t>\n(-\C</t>
+  </si>
+  <si>
+    <t>\c.\s+\n(-\C</t>
+  </si>
+  <si>
+    <t>\c:\s+\n(-\C</t>
+  </si>
+  <si>
+    <t>\c.\n(-\C</t>
+  </si>
+  <si>
+    <t>\c:\n(-\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(-\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(-\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n(-\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n(-\s+\c)\c</t>
+  </si>
+  <si>
+    <t>\n\n\s+-\s+(\c)\c</t>
+  </si>
+  <si>
+    <t>\c.\n(-\c)\c</t>
+  </si>
+  <si>
+    <t>\c:\n(-\c)\c</t>
+  </si>
+  <si>
+    <t>\c.\s+\n(-\c)</t>
+  </si>
+  <si>
+    <t>\c:\s+\n(-\c)</t>
+  </si>
+  <si>
+    <t>\n(-\c)\c</t>
+  </si>
+  <si>
+    <t>\n (ΓÇó  \c</t>
+  </si>
+  <si>
+    <t>\c.\n+(-\d)</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(-\d)</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+\s+(-\d)</t>
+  </si>
+  <si>
+    <t>\n\n*(\C)</t>
+  </si>
+  <si>
+    <t>\n\n\s+(*)\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(*)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n(*)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(')\C</t>
+  </si>
+  <si>
+    <t>\n\n(')\C</t>
+  </si>
+  <si>
+    <t>\n\n(')\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(')\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(%)\C</t>
+  </si>
+  <si>
+    <t>\n\n(%)\C</t>
+  </si>
+  <si>
+    <t>\n\n(%)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(%)\s+\C</t>
+  </si>
+  <si>
+    <t>\b*\p+(\C)</t>
+  </si>
+  <si>
+    <t>\b\n*\p+(\C</t>
+  </si>
+  <si>
+    <t>\n\n*\p+(\C</t>
+  </si>
+  <si>
+    <t>\n\n*\p+\s+(\C</t>
+  </si>
+  <si>
+    <t>\n**\p+\s+(\C</t>
+  </si>
+  <si>
+    <t>\n**\s+(\C</t>
+  </si>
+  <si>
+    <t>\n**\p+(\C</t>
+  </si>
+  <si>
+    <t>\n**(\C</t>
+  </si>
+  <si>
+    <t>\n**(\d</t>
+  </si>
+  <si>
+    <t>\n\n\s+*\p+(\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+*\p+\s+\C</t>
+  </si>
+  <si>
+    <t>\c.\s+**\p+(\C</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\u)\s+\d\s</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\u)\s+\d+\s</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\u)\s+\d+/</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\u)\s+\d/</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\u)\s+\c</t>
+  </si>
+  <si>
+    <t>\n\n\s+(\u)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\n(\u)\s+\C</t>
+  </si>
+  <si>
+    <t>?\s+(\C)\c</t>
+  </si>
+  <si>
+    <t>?\s+(\d</t>
+  </si>
+  <si>
+    <t>!\s+(\C)\c</t>
+  </si>
+  <si>
+    <t>!\s+(\d</t>
+  </si>
+  <si>
+    <t>#start with time</t>
+  </si>
+  <si>
+    <t>\n\n(\d):\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d):\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d:\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d:\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d):\d-</t>
+  </si>
+  <si>
+    <t>\n\n(\d):\d\d-</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d:\d\d-</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d:\d-</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d):\d\s</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d):\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d)\d:\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d)\d:\d\s</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d):\d-</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d):\d\d-</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d)\d:\d\d-</t>
+  </si>
+  <si>
+    <t>\n\n\w+(\d)\d:\d-</t>
+  </si>
+  <si>
+    <t>#start with dates</t>
+  </si>
+  <si>
+    <t>\n\n(\d+)\s+</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d/\d/\d\d\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)/\d/\d\d\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d/\d\d/\d\d\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)/\d\d/\d\d\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d/\d/\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)/\d/\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d/\d\d/\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)/\d\d/\d\d</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d/\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d)/\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d)\d/\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\n(\d)/\d\d/\d\s</t>
+  </si>
+  <si>
+    <t>\n+\s\s\s\s(\C)</t>
+  </si>
+  <si>
+    <t>\n+\s\s\s(\C)</t>
+  </si>
+  <si>
+    <t>\n+\s\s(\C)</t>
+  </si>
+  <si>
+    <t>\n+(\C)</t>
+  </si>
+  <si>
+    <t>.\s+(N)ow </t>
+  </si>
+  <si>
+    <t>.\s+(D)ischarge </t>
+  </si>
+  <si>
+    <t>\n(\(-\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n(\(+\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n┬á┬á┬á┬á┬á┬á  (\d</t>
+  </si>
+  <si>
+    <t>\C:\n+(\d</t>
+  </si>
+  <si>
+    <t>\n(\d.\s+)\C</t>
+  </si>
+  <si>
+    <t>\n(\d.\C</t>
+  </si>
+  <si>
+    <t>\n\s+(\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\n\s+(\d\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\n\d.)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\d\d.)\s+(\C</t>
+  </si>
+  <si>
+    <t>\c:\n+(\a</t>
+  </si>
+  <si>
+    <t>\s+\s+(\d\)\s+\C</t>
+  </si>
+  <si>
+    <t>\s+\s+(\d\d\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n)                                    \d\d\)</t>
+  </si>
+  <si>
+    <t>stend</t>
+  </si>
+  <si>
+    <t>\c:\n+(\d. </t>
+  </si>
+  <si>
+    <t>\d:\n+(\d</t>
+  </si>
+  <si>
+    <t>\C:\s+\n+(\d</t>
+  </si>
+  <si>
+    <t>\C:\s+\n+(1.┬á</t>
+  </si>
+  <si>
+    <t>\c:\s+\n+(\d</t>
+  </si>
+  <si>
+    <t>\d:\s+\n+(\d</t>
+  </si>
+  <si>
+    <t>\).\s+(\C</t>
+  </si>
+  <si>
+    <t>\n(- \c</t>
+  </si>
+  <si>
+    <t>\n(- \C</t>
+  </si>
+  <si>
+    <t>\n(# \c</t>
+  </si>
+  <si>
+    <t>\n(# \C</t>
+  </si>
+  <si>
+    <t>\n(#\C</t>
+  </si>
+  <si>
+    <t>\n(#\c</t>
+  </si>
+  <si>
+    <t>\n(* \c</t>
+  </si>
+  <si>
+    <t>\n(* \C</t>
+  </si>
+  <si>
+    <t>\n(? \C</t>
+  </si>
+  <si>
+    <t>\n(? \c</t>
+  </si>
+  <si>
+    <t>\n(. \C</t>
+  </si>
+  <si>
+    <t>\n(+ \C</t>
+  </si>
+  <si>
+    <t>\n(/ \C</t>
+  </si>
+  <si>
+    <t>\n+\d\d-\d\d\s+(\C</t>
+  </si>
+  <si>
+    <t>\n+\d+-\d\d-\d\d\s+(\C</t>
+  </si>
+  <si>
+    <t>\n+\d+-\d\d-\d\d\s+:\s+(\C</t>
+  </si>
+  <si>
+    <t>\c.\s+\n(\d.\C</t>
+  </si>
+  <si>
+    <t>\n(\d\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n(\d\d\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n(\d\)\s+\c</t>
+  </si>
+  <si>
+    <t>\n(\d\)\s+?\c</t>
+  </si>
+  <si>
+    <t>\n(\d\d\)\s+\c</t>
+  </si>
+  <si>
+    <t>\n(\d\)\C</t>
+  </si>
+  <si>
+    <t>\s\s(\d\)\C</t>
+  </si>
+  <si>
+    <t>\s\s(\d\)?\s+\C</t>
+  </si>
+  <si>
+    <t>\c)\w+\d\)\s+\d+\s+(\c</t>
+  </si>
+  <si>
+    <t>\c\w+(\d\)\C</t>
+  </si>
+  <si>
+    <t>\d\)\C+\w+(\d\)\c</t>
+  </si>
+  <si>
+    <t>\c)\w+\d\)</t>
+  </si>
+  <si>
+    <t>\c)\w+\d\d\)</t>
+  </si>
+  <si>
+    <t>\(\a+\w+\a+\)</t>
+  </si>
+  <si>
+    <t>\c\c)\w+\d\d\),</t>
+  </si>
+  <si>
+    <t>\c\c)\w+\d\),</t>
+  </si>
+  <si>
+    <t>\c\c)\w+\d\).</t>
+  </si>
+  <si>
+    <t>\c\c)\w+\d\d\).</t>
+  </si>
+  <si>
+    <t>from \d+ to \d+</t>
+  </si>
+  <si>
+    <t>\C\C)\w+\d\d\),</t>
+  </si>
+  <si>
+    <t>\C\C)\w+\d\),</t>
+  </si>
+  <si>
+    <t>\C\C)\w+\d\).</t>
+  </si>
+  <si>
+    <t>\C\C)\w+\d\d\).</t>
+  </si>
+  <si>
+    <t>\C(\C)\w+\d\)</t>
+  </si>
+  <si>
+    <t>\C(\C)\w+\d\d\)</t>
+  </si>
+  <si>
+    <t>\(\C+\s+\d\d\)</t>
+  </si>
+  <si>
+    <t>\(\c+\s+\d\d\)</t>
+  </si>
+  <si>
+    <t>\d(%)\w+\d\)</t>
+  </si>
+  <si>
+    <t>\d(%)\w+\d\d\)</t>
+  </si>
+  <si>
+    <t>\d)\w+\d\)</t>
+  </si>
+  <si>
+    <t>\d)\w+\d\d\)</t>
+  </si>
+  <si>
+    <t>\d\d-\d\d\s+(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\d\d-\d\d\s+.\s+(\C</t>
+  </si>
+  <si>
+    <t>\d\d\d(\d)\s+.\s+\C</t>
+  </si>
+  <si>
+    <t>\d\d\d\d\s+.\s+(\C</t>
+  </si>
+  <si>
+    <t>\n(\d.\)\C</t>
+  </si>
+  <si>
+    <t>\n(\d.\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\s+(\d.\\s+\C</t>
+  </si>
+  <si>
+    <t>\n\s+(\d.\)\C</t>
+  </si>
+  <si>
+    <t>\n\s+(\d.\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\d.\s+(\d)\d-\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\d.\s+(\d)\d-\d\d\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\d.\s+(\d)\d-\d\d-\d\d\d\d\s</t>
+  </si>
+  <si>
+    <t>\n\(a\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\(b\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\(c\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\(d\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\(e\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\(f\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n\(g\)\s+(\C</t>
+  </si>
+  <si>
+    <t>\n(\(\d\)\s+\C</t>
+  </si>
+  <si>
+    <t>\n("\C</t>
+  </si>
+  <si>
+    <t>(\a)\s+\n+-</t>
+  </si>
+  <si>
+    <t>\c(\c)\n+ \C</t>
+  </si>
+  <si>
+    <t>\c(.)\s+This </t>
+  </si>
+  <si>
+    <t>\c(.)\s+That </t>
+  </si>
+  <si>
+    <t>\c(.)\s+The </t>
+  </si>
+  <si>
+    <t>\c(.)\s+She </t>
+  </si>
+  <si>
+    <t>\c(.)\s+He </t>
+  </si>
+  <si>
+    <t>\c(.)\s+Her </t>
+  </si>
+  <si>
+    <t>\c(.)\s+His </t>
+  </si>
+  <si>
+    <t>\c(.)\s+They </t>
+  </si>
+  <si>
+    <t>\c(.)\s+Their </t>
+  </si>
+  <si>
+    <t>\c(.)\s+But </t>
+  </si>
+  <si>
+    <t>\C(.)\s+Now </t>
+  </si>
+  <si>
+    <t>\C(.)\s+Discharge </t>
+  </si>
+  <si>
+    <t> mL(.)\s+The </t>
+  </si>
+  <si>
+    <t>\c(.)\s+I</t>
+  </si>
+  <si>
+    <t>\d(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\d(.)\s\C</t>
+  </si>
+  <si>
+    <t>.\s+\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\)(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\p\p\p\s+\n\C</t>
+  </si>
+  <si>
+    <t>\)(.)\s+\n\C</t>
+  </si>
+  <si>
+    <t>\c(\c)\n+\C</t>
+  </si>
+  <si>
+    <t>\c(\c)\s+\n+\C</t>
+  </si>
+  <si>
+    <t>\a\s+\n\n</t>
+  </si>
+  <si>
+    <t>\a\n\n</t>
+  </si>
+  <si>
+    <t>\a\n\e</t>
+  </si>
+  <si>
+    <t>\a\s+\n\e</t>
+  </si>
+  <si>
+    <t>\a\n\n\e</t>
+  </si>
+  <si>
+    <t>\c)********</t>
+  </si>
+  <si>
+    <t>\c)**\n</t>
+  </si>
+  <si>
+    <t>\c)**\s+\n</t>
+  </si>
+  <si>
+    <t>\c)**\p+\s+\n</t>
+  </si>
+  <si>
+    <t>\c)**\p+\n</t>
+  </si>
+  <si>
+    <t>\c)\s+**\p+\s+\n</t>
+  </si>
+  <si>
+    <t>\c\s+**\p+\n</t>
+  </si>
+  <si>
+    <t>\c\s+\n\w+**</t>
+  </si>
+  <si>
+    <t>\c.\s+\n\w+**</t>
+  </si>
+  <si>
+    <t>\d(.)\s+\n\w+**</t>
+  </si>
+  <si>
+    <t>(\d)**\p+\s+\n</t>
+  </si>
+  <si>
+    <t>\d**\p+\n</t>
+  </si>
+  <si>
+    <t>.\s+**\p+\s+\n</t>
+  </si>
+  <si>
+    <t>.\s+**\p+\n</t>
+  </si>
+  <si>
+    <t>.**\p+\s+\n</t>
+  </si>
+  <si>
+    <t>.**\s+\p+\n</t>
+  </si>
+  <si>
+    <t>.**\p+\s+\p+\n</t>
+  </si>
+  <si>
+    <t>.**\p+\n</t>
+  </si>
+  <si>
+    <t>.**\s+\n\n</t>
+  </si>
+  <si>
+    <t>.**\n\n</t>
+  </si>
+  <si>
+    <t>.\s+**\s+\n\n</t>
+  </si>
+  <si>
+    <t>.\s+**\n\n</t>
+  </si>
+  <si>
+    <t>:**\p+\n</t>
+  </si>
+  <si>
+    <t>:**\s+\n\n</t>
+  </si>
+  <si>
+    <t>:**\s+\n\w+</t>
+  </si>
+  <si>
+    <t>:**\n\n</t>
+  </si>
+  <si>
+    <t>:\s+**\s+\n\n</t>
+  </si>
+  <si>
+    <t>:\s+**\n\n</t>
+  </si>
+  <si>
+    <t>:)\n\u\s+\C</t>
+  </si>
+  <si>
+    <t>\d**\s+\n\n</t>
+  </si>
+  <si>
+    <t>\d**\n\n</t>
+  </si>
+  <si>
+    <t>\a\s+\n+**</t>
+  </si>
+  <si>
+    <t>\a\s+\n\w+**\p+\C</t>
+  </si>
+  <si>
+    <t>\c(.\s+**\p+\C</t>
+  </si>
+  <si>
+    <t>\d)\s+\n+\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\d)\s+\n+\d\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\c)\s+\n+\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\c)\s+\n+\d\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\C)\s+\n+\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\C)\s+\n+\d\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\d)\s+\n+\d.\s+\c</t>
+  </si>
+  <si>
+    <t>\c)\s+\n+\d.\s+\c</t>
+  </si>
+  <si>
+    <t>\c)\s+\n+\d\d.\s+\c</t>
+  </si>
+  <si>
+    <t>\C)\s+\n+\d.\s+\c</t>
+  </si>
+  <si>
+    <t>\C)\s+\n+\d\d.\s+\c</t>
+  </si>
+  <si>
+    <t>\c(\))\s+\n\n</t>
+  </si>
+  <si>
+    <t>\c(\c)\s+\n\e</t>
+  </si>
+  <si>
+    <t>\c\c(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\c(.)\s+\e</t>
+  </si>
+  <si>
+    <t>\c(.)\s+\n\e</t>
+  </si>
+  <si>
+    <t>\c(.)\s+\n</t>
+  </si>
+  <si>
+    <t>\d(.)\n</t>
+  </si>
+  <si>
+    <t>\c(:)\n</t>
+  </si>
+  <si>
+    <t>\C(:)\n</t>
+  </si>
+  <si>
+    <t>\d(:)\n</t>
+  </si>
+  <si>
+    <t>\c(:)\s+\n</t>
+  </si>
+  <si>
+    <t>\C(:)\s+\n</t>
+  </si>
+  <si>
+    <t>\d(:)\s+\n</t>
+  </si>
+  <si>
+    <t>\C\C\C(.)\s+\C\c</t>
+  </si>
+  <si>
+    <t>\C(.)\n</t>
+  </si>
+  <si>
+    <t>\)(.)\n</t>
+  </si>
+  <si>
+    <t>](.)\n</t>
+  </si>
+  <si>
+    <t>\c(.)\n</t>
+  </si>
+  <si>
+    <t>\c(.)\e</t>
+  </si>
+  <si>
+    <t>\c\e</t>
+  </si>
+  <si>
+    <t>\C\e</t>
+  </si>
+  <si>
+    <t>\d\e</t>
+  </si>
+  <si>
+    <t>\p\e</t>
+  </si>
+  <si>
+    <t>\c\s+\e</t>
+  </si>
+  <si>
+    <t>\C\s+\e</t>
+  </si>
+  <si>
+    <t>\p\s+\e</t>
+  </si>
+  <si>
+    <t>\d\s+\e</t>
+  </si>
+  <si>
+    <t>\b\d(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\n\d+(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\d+.\C+(:)\s+\n</t>
+  </si>
+  <si>
+    <t>Mrs(.) </t>
+  </si>
+  <si>
+    <t>Miss(.) </t>
+  </si>
+  <si>
+    <t>Mr(.) </t>
+  </si>
+  <si>
+    <t>Ms(.) </t>
+  </si>
+  <si>
+    <t>\c\n+\c</t>
+  </si>
+  <si>
+    <t>\c\n+\s+\c</t>
+  </si>
+  <si>
+    <t>\c\s+\n+\c</t>
+  </si>
+  <si>
+    <t>\c\s+\n+\s+\c</t>
+  </si>
+  <si>
+    <t>,\w+\c\c</t>
+  </si>
+  <si>
+    <t>,\n\w+\c\c</t>
+  </si>
+  <si>
+    <t>,\w+\d+ </t>
+  </si>
+  <si>
+    <t>,\n\w+\d+ </t>
+  </si>
+  <si>
+    <t>;\w+\c\c</t>
+  </si>
+  <si>
+    <t>\)\w+\c\c</t>
+  </si>
+  <si>
+    <t>\)\n\w+\c\c</t>
+  </si>
+  <si>
+    <t>\)\w+\d </t>
+  </si>
+  <si>
+    <t>\)\n\w+\d+ </t>
+  </si>
+  <si>
+    <t>\c)\s+\d+\)\s+\d+\s+.</t>
+  </si>
+  <si>
+    <t>\d+\s+.\s+(\C</t>
+  </si>
+  <si>
+    <t>\s+\C(\C)\w+\c\c</t>
+  </si>
+  <si>
+    <t>\s+\C\C(\C)\w+\c\c</t>
+  </si>
+  <si>
+    <t>\s+\C\C\C(\C)\w+\c\c</t>
+  </si>
+  <si>
+    <t>A\w+\c\c</t>
+  </si>
+  <si>
+    <t>A\n\w+\c\c</t>
+  </si>
+  <si>
+    <t>A\w+\d+ </t>
+  </si>
+  <si>
+    <t>A\n\w+\d+ </t>
+  </si>
+  <si>
+    <t>\d+)\w+week</t>
+  </si>
+  <si>
+    <t>\d+)\w+month</t>
+  </si>
+  <si>
+    <t>\d+)\w+\day</t>
+  </si>
+  <si>
+    <t>\d+)\w+year</t>
+  </si>
+  <si>
+    <t>\d+)\w+cm </t>
+  </si>
+  <si>
+    <t>\d+)\w+m </t>
+  </si>
+  <si>
+    <t>\d+)\w+mg </t>
+  </si>
+  <si>
+    <t>\d+)\w+g </t>
+  </si>
+  <si>
+    <t>\d+)\w+kg </t>
+  </si>
+  <si>
+    <t>\d+)\w+lb </t>
+  </si>
+  <si>
+    <t>\d+)\w+feet </t>
+  </si>
+  <si>
+    <t>\d+)\w+inch </t>
+  </si>
+  <si>
+    <t>\d+)\w+ml </t>
+  </si>
+  <si>
+    <t>\d+)\w+ou </t>
+  </si>
+  <si>
+    <t>\d+)\w+ounce </t>
+  </si>
+  <si>
+    <t>\d+)\w+total dose</t>
+  </si>
+  <si>
+    <t>\d+)\w+dose</t>
+  </si>
+  <si>
+    <t>\d+)\w+tablet</t>
+  </si>
+  <si>
+    <t>#start with number + units</t>
+  </si>
+  <si>
+    <t>\c\n+\d+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\c\n+\s+\d+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\c\s+\n+\d+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\c\s+\n+\d+\s+\s+\c\c</t>
+  </si>
+  <si>
+    <t>#start with float + units</t>
+  </si>
+  <si>
+    <t>\c\n+\d+.\d+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\c\n+\s+\d+.\d+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\c\s+\n+\d+.\d+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\c\s+\n+\d+.\d+\s+\s+\c\c</t>
+  </si>
+  <si>
+    <t>are:\s+\n+\c</t>
+  </si>
+  <si>
+    <t>\sis:\s+\n+\c</t>
+  </si>
+  <si>
+    <t>was:\s+\n+\c</t>
+  </si>
+  <si>
+    <t>were:\s+\n+\c</t>
+  </si>
+  <si>
+    <t>are:\n+\c</t>
+  </si>
+  <si>
+    <t>\sis:\n+\c</t>
+  </si>
+  <si>
+    <t>was:\n+\c</t>
+  </si>
+  <si>
+    <t>were:\n+\c</t>
+  </si>
+  <si>
+    <t>are:\n+\s+\c</t>
+  </si>
+  <si>
+    <t>\sis:\n+\s+\c</t>
+  </si>
+  <si>
+    <t>was:\n+\s+\c</t>
+  </si>
+  <si>
+    <t>were:\n+\s+\c</t>
+  </si>
+  <si>
+    <t>are:\s+\n+\s+\c</t>
+  </si>
+  <si>
+    <t>\sis:\s+\n+\s+\c</t>
+  </si>
+  <si>
+    <t>was:\s+\n+\s+\c</t>
+  </si>
+  <si>
+    <t>were:\s+\n+\s+\c</t>
+  </si>
+  <si>
+    <t>#:\n+\c)+</t>
+  </si>
+  <si>
+    <t>#:\s+\n+\c\c</t>
+  </si>
+  <si>
+    <t>#:\n+\s+\c\c</t>
+  </si>
+  <si>
+    <t>#:\s+\n+\s+\c\c</t>
+  </si>
+  <si>
+    <t>\spulm.</t>
+  </si>
+  <si>
+    <t> mL\n+\c)+</t>
+  </si>
+  <si>
+    <t> mL\s+\n+\c\c</t>
+  </si>
+  <si>
+    <t> mL\n+\s+\c\c</t>
+  </si>
+  <si>
+    <t> mL\s+\n+\s+\c\c</t>
+  </si>
+  <si>
+    <t> \n\n\n+ ΓÇó  </t>
+  </si>
+  <si>
+    <t>\s+\n\n+\s+\C</t>
+  </si>
+  <si>
+    <t>\d+.\s+\C+(:\s+\n\n+\s+\C\c+\s+\d+.</t>
+  </si>
+  <si>
+    <t>\d+.\s+\C\c+(:\s+\n\n+\s+\C\c+\s+\d+.</t>
+  </si>
+  <si>
+    <t>\a\w+_______________</t>
+  </si>
+  <si>
+    <t>\a(\p)\w+_______________</t>
+  </si>
+  <si>
+    <t>(\c)\n- \c</t>
+  </si>
+  <si>
+    <t>(\c)\n- \C</t>
+  </si>
+  <si>
+    <t>\c.(")\s+\C</t>
+  </si>
+  <si>
+    <t>\c."\s+(\C</t>
+  </si>
+  <si>
+    <t>Heart\nFailure</t>
+  </si>
+  <si>
+    <t> and\s+\n\n</t>
+  </si>
+  <si>
+    <t> that\s+\n\n</t>
+  </si>
+  <si>
+    <t> for\s+\n+</t>
+  </si>
+  <si>
+    <t> had\s+\n+</t>
+  </si>
+  <si>
+    <t> have\s+\n+</t>
+  </si>
+  <si>
+    <t> has\s+\n+</t>
+  </si>
+  <si>
+    <t>I\s+\n\n</t>
+  </si>
+  <si>
+    <t> I\s+\n\n</t>
+  </si>
+  <si>
+    <t>\(\C+\s+\n\n</t>
+  </si>
+  <si>
+    <t>\(\c+\s+\n\n</t>
+  </si>
+  <si>
+    <t>\n(rhabdomyolysis:\n</t>
+  </si>
+  <si>
+    <t>.\s+\n+(\c+\s+\c+\s+\c+\s+\c+:\n</t>
+  </si>
+  <si>
+    <t>.\s+\n+(\c+\s+\c+\s+\c+:\n</t>
+  </si>
+  <si>
+    <t>#\w+(H)istory of Present Illness:</t>
+  </si>
+  <si>
+    <t>\c)\w+History of Present Illness:</t>
+  </si>
+  <si>
+    <t>\C)\w+History of Present Illness:</t>
+  </si>
+  <si>
+    <t>\p)\w+History of Present Illness:</t>
+  </si>
+  <si>
+    <t>\c)\w+History of present illness:</t>
+  </si>
+  <si>
+    <t>\C)\w+History of present illness:</t>
+  </si>
+  <si>
+    <t>\p)\w+History of present illness:</t>
+  </si>
+  <si>
+    <t>\c)\w+HISTORY OF PRESENT ILLNESS:</t>
+  </si>
+  <si>
+    <t>\C)\w+HISTORY OF PRESENT ILLNESS:</t>
+  </si>
+  <si>
+    <t>\p)\w+HISTORY OF PRESENT ILLNESS:</t>
+  </si>
+  <si>
+    <t>\c)\w+Past Medical History:</t>
+  </si>
+  <si>
+    <t>\C)\w+Past Medical History:</t>
+  </si>
+  <si>
+    <t>\p)\w+Past Medical History:</t>
+  </si>
+  <si>
+    <t>\c)\w+History of Past Illness:</t>
+  </si>
+  <si>
+    <t>\C)\w+History of Past Illness:</t>
+  </si>
+  <si>
+    <t>\p)\w+History of Past Illness:</t>
+  </si>
+  <si>
+    <t>\c)\w+Chief Complaint:</t>
+  </si>
+  <si>
+    <t>\C)\w+Chief Complaint:</t>
+  </si>
+  <si>
+    <t>\p)\w+Chief Complaint:</t>
+  </si>
+  <si>
+    <t>.)\s+The</t>
+  </si>
+  <si>
+    <t>.\s+(The</t>
+  </si>
+  <si>
+    <t>.\s+(\d.\s+\C</t>
+  </si>
+  <si>
+    <t>.\s+(\d.\C</t>
+  </si>
+  <si>
+    <t>\c(.\s+\d.\C</t>
+  </si>
+  <si>
+    <t>\c)\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\C)\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\d)\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\p)\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\c)\w+\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\C)\w+\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\d)\w+\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\p)\w+\w+REASON FOR</t>
+  </si>
+  <si>
+    <t>\c)\w+Reason For</t>
+  </si>
+  <si>
+    <t>\C)\w+Reason For</t>
+  </si>
+  <si>
+    <t>\d)\w+Reason For</t>
+  </si>
+  <si>
+    <t>\p)\w+Reason For</t>
+  </si>
+  <si>
+    <t>\c)\w+\w+Reason For</t>
+  </si>
+  <si>
+    <t>\C)\w+\w+Reason For</t>
+  </si>
+  <si>
+    <t>\d)\w+\w+Reason For</t>
+  </si>
+  <si>
+    <t>\p)\w+\w+Reason For</t>
+  </si>
+  <si>
+    <t>R)EASON FOR</t>
+  </si>
+  <si>
+    <t>#REASON FOR THIS EXAMINATION(:</t>
+  </si>
+  <si>
+    <t>#REASON FOR\w+(\d</t>
+  </si>
+  <si>
+    <t>#REASON FOR\w+(\C</t>
+  </si>
+  <si>
+    <t>#REASON FOR\w+(\c</t>
+  </si>
+  <si>
+    <t>#REASON FOR\w+(\p</t>
+  </si>
+  <si>
+    <t>#Reason For This Examination(:</t>
+  </si>
+  <si>
+    <t>#Reason For\w+(\d</t>
+  </si>
+  <si>
+    <t>#Reason For\w+(\C</t>
+  </si>
+  <si>
+    <t>#Reason For\w+(\c</t>
+  </si>
+  <si>
+    <t>#Reason For\w+(\p</t>
+  </si>
+  <si>
+    <t>\c)\w+INDICATION:</t>
+  </si>
+  <si>
+    <t>\C)\w+INDICATION:</t>
+  </si>
+  <si>
+    <t>\d)\w+INDICATION:</t>
+  </si>
+  <si>
+    <t>\p)\w+INDICATION:</t>
+  </si>
+  <si>
+    <t>\c)\w+Indication:</t>
+  </si>
+  <si>
+    <t>\C)\w+Indication:</t>
+  </si>
+  <si>
+    <t>\d)\w+Indication:</t>
+  </si>
+  <si>
+    <t>\p)\w+Indication:</t>
+  </si>
+  <si>
+    <t>#INDICATION(:</t>
+  </si>
+  <si>
+    <t>#INDICATION:\w+(\d</t>
+  </si>
+  <si>
+    <t>#INDICATION:\w+(\C</t>
+  </si>
+  <si>
+    <t>#INDICATION:\w+(\c</t>
+  </si>
+  <si>
+    <t>#INDICATION:\w+(\p</t>
+  </si>
+  <si>
+    <t>#Indication(:</t>
+  </si>
+  <si>
+    <t>#Indication:\w+(\d</t>
+  </si>
+  <si>
+    <t>#Indication:\w+(\C</t>
+  </si>
+  <si>
+    <t>#Indication:\w+(\c</t>
+  </si>
+  <si>
+    <t>#Indication:\w+(\p</t>
+  </si>
+  <si>
+    <t>\c)\w+REASON:</t>
+  </si>
+  <si>
+    <t>\C)\w+REASON:</t>
+  </si>
+  <si>
+    <t>\d)\w+REASON:</t>
+  </si>
+  <si>
+    <t>\p)\w+REASON:</t>
+  </si>
+  <si>
+    <t>\c)\w+Reason:</t>
+  </si>
+  <si>
+    <t>\C)\w+Reason:</t>
+  </si>
+  <si>
+    <t>\d)\w+Reason:</t>
+  </si>
+  <si>
+    <t>\p)\w+Reason:</t>
+  </si>
+  <si>
+    <t>#REASON(:</t>
+  </si>
+  <si>
+    <t>#REASON:\w+(\d</t>
+  </si>
+  <si>
+    <t>#REASON:\w+(\C</t>
+  </si>
+  <si>
+    <t>#REASON:\w+(\c</t>
+  </si>
+  <si>
+    <t>#REASON:\w+(\p</t>
+  </si>
+  <si>
+    <t>#Reason(:</t>
+  </si>
+  <si>
+    <t>#Reason:\w+(\d</t>
+  </si>
+  <si>
+    <t>#Reason:\w+(\C</t>
+  </si>
+  <si>
+    <t>#Reason:\w+(\c</t>
+  </si>
+  <si>
+    <t>#Reason:\w+(\p</t>
+  </si>
+  <si>
+    <t>\a)\w+Admitting Diagnosis:</t>
+  </si>
+  <si>
+    <t>\a)\w+ADMITTING DIAGNOSIS:</t>
+  </si>
+  <si>
+    <t>\a\w+(A)dmitting Diagnosis:</t>
+  </si>
+  <si>
+    <t>\a\w+(A)DMITTING DIAGNOSIS:</t>
+  </si>
+  <si>
+    <t>#Admitting Diagnosis(:</t>
+  </si>
+  <si>
+    <t>#Admitting Diagnosis:\w+(\d</t>
+  </si>
+  <si>
+    <t>#Admitting Diagnosis:\w+(\C</t>
+  </si>
+  <si>
+    <t>#Admitting Diagnosis:\w+(\c</t>
+  </si>
+  <si>
+    <t>#Admitting Diagnosis:\w+(\p</t>
+  </si>
+  <si>
+    <t>#ADMITTING DIAGNOSIS(:</t>
+  </si>
+  <si>
+    <t>#ADMITTING DIAGNOSIS:\w+(\d</t>
+  </si>
+  <si>
+    <t>#ADMITTING DIAGNOSIS:\w+(\C</t>
+  </si>
+  <si>
+    <t>#ADMITTING DIAGNOSIS:\w+(\c</t>
+  </si>
+  <si>
+    <t>#ADMITTING DIAGNOSIS:\w+(\p</t>
+  </si>
+  <si>
+    <t>\c)\w+Discharge Diagnosis:</t>
+  </si>
+  <si>
+    <t>\d)\w+Discharge Diagnosis:</t>
+  </si>
+  <si>
+    <t>\p)\w+Discharge Diagnosis:</t>
+  </si>
+  <si>
+    <t>\C)\w+Discharge Diagnosis:</t>
+  </si>
+  <si>
+    <t>\c)\w+DISCHARGE DIAGNOSIS:</t>
+  </si>
+  <si>
+    <t>\C)\w+DISCHARGE DIAGNOSIS:</t>
+  </si>
+  <si>
+    <t>\d)\w+DISCHARGE DIAGNOSIS:</t>
+  </si>
+  <si>
+    <t>\p)\w+DISCHARGE DIAGNOSIS:</t>
+  </si>
+  <si>
+    <t>#Discharge Diagnosis(:</t>
+  </si>
+  <si>
+    <t>#Discharge Diagnosis:\w+(\d</t>
+  </si>
+  <si>
+    <t>#Discharge Diagnosis:\w+(\C</t>
+  </si>
+  <si>
+    <t>#Discharge Diagnosis:\w+(\c</t>
+  </si>
+  <si>
+    <t>#Discharge Diagnosis:\w+(\p</t>
+  </si>
+  <si>
+    <t>#DISCHARGE DIAGNOSIS(:</t>
+  </si>
+  <si>
+    <t>#DISCHARGE DIAGNOSIS:\w+(\d</t>
+  </si>
+  <si>
+    <t>#DISCHARGE DIAGNOSIS:\w+(\C</t>
+  </si>
+  <si>
+    <t>#DISCHARGE DIAGNOSIS:\w+(\c</t>
+  </si>
+  <si>
+    <t>#DISCHARGE DIAGNOSIS:\w+(\p</t>
+  </si>
+  <si>
+    <t>\c)\w+FINDINGS:</t>
+  </si>
+  <si>
+    <t>\C)\w+FINDINGS:</t>
+  </si>
+  <si>
+    <t>\d)\w+FINDINGS:</t>
+  </si>
+  <si>
+    <t>\p)\w+FINDINGS:</t>
+  </si>
+  <si>
+    <t>F)INDINGS:</t>
+  </si>
+  <si>
+    <t>#FINDINGS(:</t>
+  </si>
+  <si>
+    <t>#FINDINGS:\w+(\d</t>
+  </si>
+  <si>
+    <t>#FINDINGS:\w+(\C</t>
+  </si>
+  <si>
+    <t>#FINDINGS:\w+(\c</t>
+  </si>
+  <si>
+    <t>#FINDINGS:\w+(\p</t>
+  </si>
+  <si>
+    <t>\c)\w+Findings:</t>
+  </si>
+  <si>
+    <t>\C)\w+Findings:</t>
+  </si>
+  <si>
+    <t>\d)\w+Findings:</t>
+  </si>
+  <si>
+    <t>\p)\w+Findings:</t>
+  </si>
+  <si>
+    <t>#Findings(:</t>
+  </si>
+  <si>
+    <t>#Findings:\w+(\d</t>
+  </si>
+  <si>
+    <t>#Findings:\w+(\C</t>
+  </si>
+  <si>
+    <t>#Findings:\w+(\c</t>
+  </si>
+  <si>
+    <t>#Findings:\w+(\p</t>
+  </si>
+  <si>
+    <t>#Brief Hospital Course(:</t>
+  </si>
+  <si>
+    <t>#Brief Hospital Course:\w+(\d</t>
+  </si>
+  <si>
+    <t>#Brief Hospital Course:\w+(\C</t>
+  </si>
+  <si>
+    <t>#Brief Hospital Course:\w+(\c</t>
+  </si>
+  <si>
+    <t>#Brief Hospital Course:\w+(\p</t>
+  </si>
+  <si>
+    <t>\c(?)\w+</t>
+  </si>
+  <si>
+    <t>\C(?)\w+</t>
+  </si>
+  <si>
+    <t>\d(?)\w+</t>
+  </si>
+  <si>
+    <t>:\w+(?\w+</t>
+  </si>
+  <si>
+    <t>D(.)\s+\n+\d+.\s+\C</t>
+  </si>
+  <si>
+    <t>N(.)\s+\n+\d+.\s+\C</t>
+  </si>
+  <si>
+    <t>NPO(.)\s+\n+\C</t>
+  </si>
+  <si>
+    <t>\)(.)\w+\d+.\s+\C</t>
+  </si>
+  <si>
+    <t>\c+\s+(.)\s+\C\c+</t>
+  </si>
+  <si>
+    <t>\c+\s+.\s+(\C\c+</t>
+  </si>
+  <si>
+    <t>P(M\n\C</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s\s+Reason:</t>
+  </si>
+  <si>
+    <t>\s\s\s\s+(Reason:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s\s+Admitting Diagnosis:</t>
+  </si>
+  <si>
+    <t>\s\s\s\s+(Admitting Diagnosis:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s\s+Sex:</t>
+  </si>
+  <si>
+    <t>\s\s\s\s+(Sex:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s\s+Discharge Date:</t>
+  </si>
+  <si>
+    <t>\s\s\s\s+(Discharge Date:</t>
+  </si>
+  <si>
+    <t>dail(y\n-</t>
+  </si>
+  <si>
+    <t>qh(s\n-</t>
+  </si>
+  <si>
+    <t>\sq(d\n-</t>
+  </si>
+  <si>
+    <t>QH(S\n-</t>
+  </si>
+  <si>
+    <t>\a)\s+Refills:</t>
+  </si>
+  <si>
+    <t>\a)*\s+Refills:</t>
+  </si>
+  <si>
+    <t>\a\s+(Refills:</t>
+  </si>
+  <si>
+    <t>\a)\n\C:</t>
+  </si>
+  <si>
+    <t>\a)\s+\n\C:</t>
+  </si>
+  <si>
+    <t>\n(\C:</t>
+  </si>
+  <si>
+    <t>\n(JOB#:</t>
+  </si>
+  <si>
+    <t>\a)\nJOB#:</t>
+  </si>
+  <si>
+    <t>\a)\s+\nJOB#:</t>
+  </si>
+  <si>
+    <t>\n(Signed\s</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s\w+Signed\s</t>
+  </si>
+  <si>
+    <t>\c)\n+Signed\s</t>
+  </si>
+  <si>
+    <t>\d)\n+Signed\s</t>
+  </si>
+  <si>
+    <t>\p)\n+Signed\s</t>
+  </si>
+  <si>
+    <t>\(End of Report</t>
+  </si>
+  <si>
+    <t>\a)\w+\(End of Report\)</t>
+  </si>
+  <si>
+    <t>Instructions(:\n+\a</t>
+  </si>
+  <si>
+    <t>Instructions:\n+(\a</t>
+  </si>
+  <si>
+    <t>\n+(Follow</t>
+  </si>
+  <si>
+    <t>\a)\w+\n+Follow</t>
+  </si>
+  <si>
+    <t>\d+\s+\n+total dose</t>
+  </si>
+  <si>
+    <t>\a)\n+\C\c+:</t>
+  </si>
+  <si>
+    <t>\a\n+(\C\c+:</t>
+  </si>
+  <si>
+    <t>\a)\n+\C\C+:</t>
+  </si>
+  <si>
+    <t>\a\n+(\C\C+:</t>
+  </si>
+  <si>
+    <t>\a)\s+\n+\C\C+:</t>
+  </si>
+  <si>
+    <t>\a\s+\n+(\C\C+:</t>
+  </si>
+  <si>
+    <t>\c)\n+\C\C+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\c\n+(\C\C+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\d)\n+\C\C+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\d\n+(\C\C+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\a)\n+T\s+</t>
+  </si>
+  <si>
+    <t>\a\n+(T)\s+</t>
+  </si>
+  <si>
+    <t>\a)\n+P\s+</t>
+  </si>
+  <si>
+    <t>\a\n+(P)\s+</t>
+  </si>
+  <si>
+    <t>\a)\n+R\s+</t>
+  </si>
+  <si>
+    <t>\a\n+(R)\s+</t>
+  </si>
+  <si>
+    <t>\a)\s+\n+R\s+</t>
+  </si>
+  <si>
+    <t>\a\s+\n+(R)\s+</t>
+  </si>
+  <si>
+    <t>\a)\n+BP\s+</t>
+  </si>
+  <si>
+    <t>\a\n+(BP)\s+</t>
+  </si>
+  <si>
+    <t>\a)\n+O2\s+</t>
+  </si>
+  <si>
+    <t>\a\n+(O2)\s+</t>
+  </si>
+  <si>
+    <t>\a)\w+Sig:\s+</t>
+  </si>
+  <si>
+    <t>\a\w+(Sig:\s+</t>
+  </si>
+  <si>
+    <t>\)(.)\s+\n+\d.\s+\c+</t>
+  </si>
+  <si>
+    <t>\).\s+\n+(\d.\s+\c+</t>
+  </si>
+  <si>
+    <t>\))\s+\n+\d.\s+\c+</t>
+  </si>
+  <si>
+    <t>\)\s+\n+(\d.\s+\c+</t>
+  </si>
+  <si>
+    <t>\))\n+\d.\s+\c+</t>
+  </si>
+  <si>
+    <t>\)\n+(\d.\s+\c+</t>
+  </si>
+  <si>
+    <t>\a\n+(\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\a)\n+\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\a)*\n+\d.\s+\C</t>
+  </si>
+  <si>
+    <t>\a)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>\a)*+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>\a\n+(\d)\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>\a)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>\a\s+\n+(\d)\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>\C\C+\n+(\d+.\s+\C</t>
+  </si>
+  <si>
+    <t>\C)\n+\d+.\s+\C</t>
+  </si>
+  <si>
+    <t>\d)\n+\C\C+</t>
+  </si>
+  <si>
+    <t>\c)\n+\C\c+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\c\n+(\C\c+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\d)\n+\C\c+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\d\n+(\C\c+\s\(\a\a+\):</t>
+  </si>
+  <si>
+    <t>\c.\s+(-)\s+\C</t>
+  </si>
+  <si>
+    <t>\c(.)\s+-\s+\C</t>
+  </si>
+  <si>
+    <t>\c\s+(-)\s+\C</t>
+  </si>
+  <si>
+    <t>\c\s+-\s+\C</t>
+  </si>
+  <si>
+    <t>\C\c+\s+-\s+\C\c+</t>
+  </si>
+  <si>
+    <t>\C\c+(:)\s+\n+\c</t>
+  </si>
+  <si>
+    <t>\C\c+:\s+\n+(\c</t>
+  </si>
+  <si>
+    <t>\C\c+:\n+\s+(\c</t>
+  </si>
+  <si>
+    <t>\C\c+(:)\n+\c</t>
+  </si>
+  <si>
+    <t>\C\c+:\n+(\c</t>
+  </si>
+  <si>
+    <t>\C\C\C:\n+(\c</t>
+  </si>
+  <si>
+    <t>\C\C\C\):\n+(\c</t>
+  </si>
+  <si>
+    <t>\sand)\s+\n+\C</t>
+  </si>
+  <si>
+    <t>\sand)\s+\n+\c</t>
+  </si>
+  <si>
+    <t>\sand)\n+\C</t>
+  </si>
+  <si>
+    <t>\sand)\n+\c</t>
+  </si>
+  <si>
+    <t>\c(:)\s+\p+\s+\n</t>
+  </si>
+  <si>
+    <t>\s\s\s+(Γõ¼ΓòÚ)\s+\C</t>
+  </si>
+  <si>
+    <t>\c)\s\s\s+Γõ¼ΓòÚ\s\C</t>
+  </si>
+  <si>
+    <t>\p)\s\s\s+Γõ¼ΓòÚ\s\C</t>
+  </si>
+  <si>
+    <t>\C\c+\s+(-)\s+\C\c+</t>
+  </si>
+  <si>
+    <t>\s\s+(P)atient Name:</t>
+  </si>
+  <si>
+    <t>\s\s\s+(P)rocedure Date:</t>
+  </si>
+  <si>
+    <t>\s\s\s+(D)ate of Birth:</t>
+  </si>
+  <si>
+    <t>\s\s\s+(A)ge:</t>
+  </si>
+  <si>
+    <t>\s\s\s+(G)ender:</t>
+  </si>
+  <si>
+    <t>\s\s\s+(N)ote Status:</t>
+  </si>
+  <si>
+    <t>\a)\s\s+Patient Name:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s+Procedure Date:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s+Date of Birth:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s+Age:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s+Gender:</t>
+  </si>
+  <si>
+    <t>\a)\s\s\s+Note Status:</t>
+  </si>
+  <si>
+    <t>\n\n(\(\a+</t>
+  </si>
+  <si>
+    <t>\c.\n+(\(\a+</t>
+  </si>
+  <si>
+    <t>\n+(\c)\c+:</t>
+  </si>
+  <si>
+    <t>\a+\)\n\s+\c\c+:</t>
+  </si>
+  <si>
+    <t>\a+\)\s+\n+\c\c+:</t>
+  </si>
+  <si>
+    <t>\a+\)\n+\c\c+:</t>
+  </si>
+  <si>
+    <t>\a+\)\s+\n+\s+\c\c+:</t>
+  </si>
+  <si>
+    <t>\c\n+\c\c+:</t>
+  </si>
+  <si>
+    <t>On)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>On)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>on)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>on)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>by)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>by)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>since)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>since)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>Since)\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>Since)\s+\n+\d\d\d\d-\d\d-\d\d\s\s\s+</t>
+  </si>
+  <si>
+    <t>\a)\s+**+\s+\n\n</t>
+  </si>
+  <si>
+    <t>\a)\s+**+\n\n</t>
+  </si>
+  <si>
+    <t>\a(\a)\n+\d\).\s+\C</t>
+  </si>
+  <si>
+    <t>\a\n+\d\)(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\C\C\n+(\d\).\s+\C</t>
+  </si>
+  <si>
+    <t>\c.\n+(\d\).\s+\C</t>
+  </si>
+  <si>
+    <t>\C\C.\n+(\d\).\s+\C</t>
+  </si>
+  <si>
+    <t>\c.\s+\n+(\d)\).\s+\C</t>
+  </si>
+  <si>
+    <t>.\s+\n+\d\)(.)\s+\C</t>
+  </si>
+  <si>
+    <t>\a\n+(\d)\d-\d\d\s+</t>
+  </si>
+  <si>
+    <t>\a\s+\n+(\d)\d-\d\d\s+</t>
+  </si>
+  <si>
+    <t>\a.\s+\n+(\d)\d-\d\d\s+</t>
+  </si>
+  <si>
+    <t>\c\w+(\d)\)\s+\C</t>
+  </si>
+  <si>
+    <t>\c\c+.\w+(\d)\)\s+\C</t>
+  </si>
+  <si>
+    <t>\c+\c(.)\w+\d\)\s+\C</t>
+  </si>
+  <si>
+    <t>\a)\s+\n+\C\c+\s+\C\c+:</t>
+  </si>
+  <si>
+    <t>\a\s+\n+(\C)\c+\s+\C\c+:</t>
+  </si>
+  <si>
+    <t>\a)\s+\n+\C\c+:</t>
+  </si>
+  <si>
+    <t>\a\s+\n+(\C)\c+:</t>
+  </si>
+  <si>
+    <t>\a)\w+Date of Birth:</t>
+  </si>
+  <si>
+    <t>\w+(D)ate of Birth:</t>
+  </si>
+  <si>
+    <t>\c:\s+\n(\a</t>
+  </si>
+  <si>
+    <t>\sDr(.)\s</t>
+  </si>
+  <si>
+    <t>\sMr(.)\s</t>
+  </si>
+  <si>
+    <t>\sMrs(.)\s</t>
+  </si>
+  <si>
+    <t>\sMs(.)\s</t>
+  </si>
+  <si>
+    <t>\sth(e)\n\C\c+</t>
+  </si>
+  <si>
+    <t>\sTh(e)\n\C\c+</t>
+  </si>
+  <si>
+    <t>\si(n)\n\a+</t>
+  </si>
+  <si>
+    <t>\sI(n)\n\a+</t>
+  </si>
+  <si>
+    <t>\sfo(r)\n\a+</t>
+  </si>
+  <si>
+    <t>\sb(y)\a+</t>
+  </si>
+  <si>
+    <t>\shi(s)\a+</t>
+  </si>
+  <si>
+    <t>\she(r)\a+</t>
+  </si>
+  <si>
+    <t>\swit(h)\a+</t>
+  </si>
+  <si>
+    <t>\so(n)\a+</t>
+  </si>
+  <si>
+    <t>\sO(n)\a+</t>
+  </si>
+  <si>
+    <t>\sunti(l)\a+</t>
+  </si>
+  <si>
+    <t>\sUnti(l)\a+</t>
+  </si>
+  <si>
+    <t>\so(f)\a+</t>
+  </si>
+  <si>
+    <t>\sthroug(h)\a+</t>
+  </si>
+  <si>
+    <t>\san(d)\a+</t>
+  </si>
+  <si>
+    <t>\so(r)\n\a+</t>
+  </si>
+  <si>
+    <t>\sa(s)\n\a+</t>
+  </si>
+  <si>
+    <t>\sincludin(g)\a+</t>
+  </si>
+  <si>
+    <t>Cardiac\w+Surgery\w+Intensive\w+Care\w+Unit</t>
+  </si>
+  <si>
+    <t>\C\c+\w+Cardiac\w+Surgery\w+Intensive\w+Care\w+Unit</t>
+  </si>
+  <si>
+    <t>Intensive\w+Care\w+Unit</t>
+  </si>
+  <si>
+    <t>\C\c+\w+Intensive\w+Care\w+Unit</t>
+  </si>
+  <si>
+    <t>Emergency\w+Department</t>
+  </si>
+  <si>
+    <t>Coronary\w+Care\w+Unit</t>
+  </si>
+  <si>
+    <t>\a)*\n\n</t>
+  </si>
+  <si>
+    <t>\a)*\n\d\d+.\s\C</t>
+  </si>
+  <si>
+    <t>\a)*\n\d.\s\C</t>
+  </si>
+  <si>
+    <t>CENTER\w+(.</t>
+  </si>
+  <si>
+    <t>Paterna(l</t>
+  </si>
+  <si>
+    <t>HOSPITAL\w+(.</t>
+  </si>
+  <si>
+    <t>CENTER\w+.\w+(\C</t>
+  </si>
+  <si>
+    <t>HOSPITAL\w+.\w+(\C</t>
+  </si>
+  <si>
+    <t>\C\c+\w+Surgery</t>
+  </si>
+  <si>
+    <t>\c.\c(.)\w+\C\c\c</t>
+  </si>
+  <si>
+    <t>\wTR(.\w+\C\c\c</t>
+  </si>
+  <si>
+    <t>\wTR.\w+(\C)\c\c</t>
+  </si>
+  <si>
+    <t>.)\w+He </t>
+  </si>
+  <si>
+    <t>.)\w+His </t>
+  </si>
+  <si>
+    <t>.)\w+Her </t>
+  </si>
+  <si>
+    <t>.)\w+She </t>
+  </si>
+  <si>
+    <t>.)\w+We </t>
+  </si>
+  <si>
+    <t>.)\w+Our </t>
+  </si>
+  <si>
+    <t>.)\w+The </t>
+  </si>
+  <si>
+    <t>.)\w+They </t>
+  </si>
+  <si>
+    <t>.)\w+Their </t>
+  </si>
+  <si>
+    <t>.)\w+I </t>
+  </si>
+  <si>
+    <t>.)\w+My </t>
+  </si>
+  <si>
+    <t>.\w+(He </t>
+  </si>
+  <si>
+    <t>.\w+(His </t>
+  </si>
+  <si>
+    <t>.\w+(Her </t>
+  </si>
+  <si>
+    <t>.\w+(She </t>
+  </si>
+  <si>
+    <t>.\w+(We </t>
+  </si>
+  <si>
+    <t>.\w+(Our </t>
+  </si>
+  <si>
+    <t>.\w+(The </t>
+  </si>
+  <si>
+    <t>.\w+(They </t>
+  </si>
+  <si>
+    <t>.\w+(Their </t>
+  </si>
+  <si>
+    <t>.\w+(I </t>
+  </si>
+  <si>
+    <t>.\w+(My </t>
+  </si>
+  <si>
+    <t>\a)\w+_______</t>
+  </si>
+  <si>
+    <t>_______\w+(\a</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2592,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2653,9 +2659,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2675,17 +2685,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C953"/>
+  <dimension ref="A1:C956"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A934" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B956" activeCellId="0" sqref="B956:C956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.36224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.25510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11985,6 +11996,28 @@
         <v>0</v>
       </c>
       <c r="C953" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B955" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C955" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B956" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C956" s="0" t="s">
         <v>34</v>
       </c>
     </row>

--- a/conf/rush.xlsx
+++ b/conf/rush.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="rush" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="866">
   <si>
     <t>#/*******************************************************************************</t>
   </si>
@@ -2585,6 +2585,39 @@
   </si>
   <si>
     <t>_______\w+(\a</t>
+  </si>
+  <si>
+    <t>#\a)\w+PULM:</t>
+  </si>
+  <si>
+    <t>#\n(P)ULM</t>
+  </si>
+  <si>
+    <t>#\a)\w+IMPRESSION:</t>
+  </si>
+  <si>
+    <t>#\n(I)MPRESSION:</t>
+  </si>
+  <si>
+    <t>#\a)\w+REASON:</t>
+  </si>
+  <si>
+    <t>#\n(R)EASON:</t>
+  </si>
+  <si>
+    <t>#\a)\w+CHEST:</t>
+  </si>
+  <si>
+    <t>#\n(C)HEST:</t>
+  </si>
+  <si>
+    <t>\a)\w+\C\C\C\C+:</t>
+  </si>
+  <si>
+    <t>\n\w+(\C)\C\C\C+:</t>
+  </si>
+  <si>
+    <t>\n(\C)\C\C\C+:</t>
   </si>
 </sst>
 </file>
@@ -2685,18 +2718,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C956"/>
+  <dimension ref="A1:C969"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A934" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B956" activeCellId="0" sqref="B956:C956"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A936" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A970" activeCellId="0" sqref="A970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="85.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12018,6 +12051,149 @@
         <v>0</v>
       </c>
       <c r="C956" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B957" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C957" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B958" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C958" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B959" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C959" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B960" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C960" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B961" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C961" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B962" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C962" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B963" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C963" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B964" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C964" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B965" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C965" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B966" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C966" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="B967" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C967" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B968" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C968" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B969" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C969" s="0" t="s">
         <v>34</v>
       </c>
     </row>
